--- a/biology/Médecine/Éric_Albert_(psychiatre)/Éric_Albert_(psychiatre).xlsx
+++ b/biology/Médecine/Éric_Albert_(psychiatre)/Éric_Albert_(psychiatre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Albert_(psychiatre)</t>
+          <t>Éric_Albert_(psychiatre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Albert, né le 19 octobre 1955[1], est un psychiatre, consultant et essayiste français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Albert, né le 19 octobre 1955, est un psychiatre, consultant et essayiste français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Albert_(psychiatre)</t>
+          <t>Éric_Albert_(psychiatre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Albert fait ses études à la faculté de médecine à Cochin Port-Royal où il obtient son diplôme de médecin en 1984. Il obtient un DEA en psychopathologie et psychobiologie des comportements et passe l'internat de médecine. Il ouvre d'abord son cabinet en libéral puis fonde l'Institut français d’action sur le stress (IFAS)[2] qu'il dirige ensuite avec Jean-Luc Emery[3] et Laurence Saunder.
-Activités éditoriales
-Il publie en 1998 Le manager est un psy[4],[5],[6],[7],[8],[9], puis  N’obéissez plus en 2001, co-écrit avec Daniel Nguyen Nhon, pour lequel les auteurs obtiennent le prix du livre RH 2002[10] et la mention spéciale management du jury du Grand prix du management 2001[11],[12],[13],[14],[15] et Partagez le pouvoir, c'est possible en 2014[16],[17],[18],[19].
-Éric Albert est chroniqueur régulier dans la rubrique « Les Échos Executives » du journal Les Échos depuis 2009[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Albert fait ses études à la faculté de médecine à Cochin Port-Royal où il obtient son diplôme de médecin en 1984. Il obtient un DEA en psychopathologie et psychobiologie des comportements et passe l'internat de médecine. Il ouvre d'abord son cabinet en libéral puis fonde l'Institut français d’action sur le stress (IFAS) qu'il dirige ensuite avec Jean-Luc Emery et Laurence Saunder.
 </t>
         </is>
       </c>
@@ -527,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Albert_(psychiatre)</t>
+          <t>Éric_Albert_(psychiatre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,24 +553,101 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activités éditoriales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie en 1998 Le manager est un psy puis  N’obéissez plus en 2001, co-écrit avec Daniel Nguyen Nhon, pour lequel les auteurs obtiennent le prix du livre RH 2002 et la mention spéciale management du jury du Grand prix du management 2001 et Partagez le pouvoir, c'est possible en 2014.
+Éric Albert est chroniqueur régulier dans la rubrique « Les Échos Executives » du journal Les Échos depuis 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éric_Albert_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Albert_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages personnels
-Comment devenir un bon stressé Odile Jacob, 1994  (ISBN 2-7381-0271-9)[21]
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages personnels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comment devenir un bon stressé Odile Jacob, 1994  (ISBN 2-7381-0271-9)
 Guide de la gestion du stress, Eds City and York, 1995  (ISBN 2-8423-2002-6)
 Le manager durable, Éditions d’organisation, 2004  (ISBN 2-7081-3182-6)
 Managers, Faites-en moins!, Éditions d’organisation, 2005  (ISBN 2-2125-3901-0)
 Le management en questions, Eyrolles, 2012  (ISBN 2-2125-5364-1)
-Partager le pouvoir, c'est possible, Albin Michel, 2014 (ISBN 2-2262-5476-5)
-Ouvrages collectifs
-avec L. Chneiweiss, L’anxiété au quotidien, Odile Jacob, 1990  (ISBN 2-7381-0186-0)
+Partager le pouvoir, c'est possible, Albin Michel, 2014 (ISBN 2-2262-5476-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éric_Albert_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Albert_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>avec L. Chneiweiss, L’anxiété au quotidien, Odile Jacob, 1990  (ISBN 2-7381-0186-0)
 avec A. Braconnier, Tout est dans la tête, Odile Jacob, 1992  (ISBN 2-7381-0184-4)
 avec J.L. Emery, Le manager est un psy, Éditions d’organisation, 1999  (ISBN 2-7081-2132-4)
 avec J.L. Emery, Au lieu de motiver, mettez-vous donc à coacher!, Éditions d’organisation, 1999  (ISBN 2-7081-2345-9)
-avec D. N. Nhon, N’obéissez plus!, Éditions d’organisation, 2001  (ISBN 2-7081-2592-3)[22]
+avec D. N. Nhon, N’obéissez plus!, Éditions d’organisation, 2001  (ISBN 2-7081-2592-3)
 (coll.) Pourquoi j’irais travailler, Éditions d’organisation, 2003  (ISBN 2-7081-2995-3)
 avec L. Saunder, Stress.fr: comment l’entreprise peut-elle agir face au stress de ses collaborateurs?, Eyrolles, 2010  (ISBN 2-2125-4623-8)
 avec J.L. Emery, Le manager est un psy, Éditions d’organisation, 2019  (ISBN 2-2125-7169-0)</t>
